--- a/medicine/Mort/Incendie_du_Kiss/Incendie_du_Kiss.xlsx
+++ b/medicine/Mort/Incendie_du_Kiss/Incendie_du_Kiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'incendie du Kiss désigne l'incendie, le 27 janvier 2013, d'une discothèque nommée Kiss située à Santa Maria, au Brésil.
-Considéré comme le deuxième incendie le plus dévastateur de l'histoire du Brésil (après l'incendie du cirque de Niterói), il fait 242 morts et au moins 630 blessés. Le bilan est élevé à cause de l'utilisation d'une pièce pyrotechnique de plein air à l'intérieur du bâtiment, qui a embrasé l'isolation acoustique en mousse[1].
+Considéré comme le deuxième incendie le plus dévastateur de l'histoire du Brésil (après l'incendie du cirque de Niterói), il fait 242 morts et au moins 630 blessés. Le bilan est élevé à cause de l'utilisation d'une pièce pyrotechnique de plein air à l'intérieur du bâtiment, qui a embrasé l'isolation acoustique en mousse.
 </t>
         </is>
       </c>
